--- a/Matching analysis and ATE.xlsx
+++ b/Matching analysis and ATE.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mawuliagamah/gitprojects/causal_inference/causal_inference/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F19260C6-679B-014C-91C1-41134E642E37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6ED74773-F89B-9543-91B9-CB366ACFBEDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{8FB60F26-108D-B447-AAFD-BB2691756523}"/>
+    <workbookView xWindow="13580" yWindow="-21600" windowWidth="19200" windowHeight="21600" activeTab="1" xr2:uid="{8FB60F26-108D-B447-AAFD-BB2691756523}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ATE" sheetId="3" r:id="rId1"/>
+    <sheet name="Logits" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,6 +34,56 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="15">
+  <si>
+    <t>CPS</t>
+  </si>
+  <si>
+    <t>PSID</t>
+  </si>
+  <si>
+    <t>Logit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variable </t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>strata</t>
+  </si>
+  <si>
+    <t>STD. mean difference</t>
+  </si>
+  <si>
+    <t>P-value</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hispanic </t>
+  </si>
+  <si>
+    <t>Married</t>
+  </si>
+  <si>
+    <t>No degree</t>
+  </si>
+  <si>
+    <t>re75</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -65,8 +117,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -380,13 +436,784 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A222BE9C-5927-7542-B175-8BA55A4050FC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75DA887A-9F2C-F84A-9DB9-86C3CCBEA5BD}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A222BE9C-5927-7542-B175-8BA55A4050FC}">
+  <dimension ref="B2:P54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="9.83203125" customWidth="1"/>
+    <col min="5" max="5" width="10.5" customWidth="1"/>
+    <col min="6" max="6" width="14.5" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O4" s="1"/>
+      <c r="P4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="J5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" s="1"/>
+      <c r="N5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O5" s="1"/>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="O8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="O9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="K10">
+        <v>4</v>
+      </c>
+      <c r="L10" t="s">
+        <v>14</v>
+      </c>
+      <c r="O10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
+      <c r="K11">
+        <v>5</v>
+      </c>
+      <c r="L11" t="s">
+        <v>14</v>
+      </c>
+      <c r="O11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J13" t="s">
+        <v>8</v>
+      </c>
+      <c r="N13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="O15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="O16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17">
+        <v>4</v>
+      </c>
+      <c r="K17">
+        <v>4</v>
+      </c>
+      <c r="L17" t="s">
+        <v>14</v>
+      </c>
+      <c r="O17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C18">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18">
+        <v>5</v>
+      </c>
+      <c r="K18">
+        <v>5</v>
+      </c>
+      <c r="L18" t="s">
+        <v>14</v>
+      </c>
+      <c r="O18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" t="s">
+        <v>9</v>
+      </c>
+      <c r="J22" t="s">
+        <v>9</v>
+      </c>
+      <c r="N22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="O24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="G25">
+        <v>3</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="O25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C26">
+        <v>4</v>
+      </c>
+      <c r="G26">
+        <v>4</v>
+      </c>
+      <c r="K26">
+        <v>4</v>
+      </c>
+      <c r="O26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C27">
+        <v>5</v>
+      </c>
+      <c r="D27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27">
+        <v>5</v>
+      </c>
+      <c r="K27">
+        <v>5</v>
+      </c>
+      <c r="L27" t="s">
+        <v>14</v>
+      </c>
+      <c r="O27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="G28">
+        <v>2</v>
+      </c>
+      <c r="O28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="G29">
+        <v>3</v>
+      </c>
+      <c r="O29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" t="s">
+        <v>10</v>
+      </c>
+      <c r="J30" t="s">
+        <v>10</v>
+      </c>
+      <c r="N30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="G32">
+        <v>2</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="O32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C33">
+        <v>3</v>
+      </c>
+      <c r="G33">
+        <v>3</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="O33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C34">
+        <v>4</v>
+      </c>
+      <c r="D34" t="s">
+        <v>14</v>
+      </c>
+      <c r="G34">
+        <v>4</v>
+      </c>
+      <c r="K34">
+        <v>4</v>
+      </c>
+      <c r="L34" t="s">
+        <v>14</v>
+      </c>
+      <c r="O34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C35">
+        <v>5</v>
+      </c>
+      <c r="D35" t="s">
+        <v>14</v>
+      </c>
+      <c r="G35">
+        <v>5</v>
+      </c>
+      <c r="K35">
+        <v>5</v>
+      </c>
+      <c r="L35" t="s">
+        <v>14</v>
+      </c>
+      <c r="O35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" t="s">
+        <v>11</v>
+      </c>
+      <c r="J37" t="s">
+        <v>11</v>
+      </c>
+      <c r="N37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="G39">
+        <v>2</v>
+      </c>
+      <c r="K39">
+        <v>2</v>
+      </c>
+      <c r="O39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C40">
+        <v>3</v>
+      </c>
+      <c r="G40">
+        <v>3</v>
+      </c>
+      <c r="K40">
+        <v>3</v>
+      </c>
+      <c r="O40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C41">
+        <v>4</v>
+      </c>
+      <c r="D41" t="s">
+        <v>14</v>
+      </c>
+      <c r="G41">
+        <v>4</v>
+      </c>
+      <c r="K41">
+        <v>4</v>
+      </c>
+      <c r="L41" t="s">
+        <v>14</v>
+      </c>
+      <c r="O41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C42">
+        <v>5</v>
+      </c>
+      <c r="D42" t="s">
+        <v>14</v>
+      </c>
+      <c r="G42">
+        <v>5</v>
+      </c>
+      <c r="K42">
+        <v>5</v>
+      </c>
+      <c r="L42" t="s">
+        <v>14</v>
+      </c>
+      <c r="O42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" t="s">
+        <v>12</v>
+      </c>
+      <c r="J43" t="s">
+        <v>12</v>
+      </c>
+      <c r="N43" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="G45">
+        <v>2</v>
+      </c>
+      <c r="K45">
+        <v>2</v>
+      </c>
+      <c r="O45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C46">
+        <v>3</v>
+      </c>
+      <c r="G46">
+        <v>3</v>
+      </c>
+      <c r="K46">
+        <v>3</v>
+      </c>
+      <c r="O46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C47">
+        <v>4</v>
+      </c>
+      <c r="D47" t="s">
+        <v>14</v>
+      </c>
+      <c r="G47">
+        <v>4</v>
+      </c>
+      <c r="K47">
+        <v>4</v>
+      </c>
+      <c r="L47" t="s">
+        <v>14</v>
+      </c>
+      <c r="O47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C48">
+        <v>5</v>
+      </c>
+      <c r="D48" t="s">
+        <v>14</v>
+      </c>
+      <c r="G48">
+        <v>5</v>
+      </c>
+      <c r="K48">
+        <v>5</v>
+      </c>
+      <c r="L48" t="s">
+        <v>14</v>
+      </c>
+      <c r="O48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49" t="s">
+        <v>13</v>
+      </c>
+      <c r="J49" t="s">
+        <v>13</v>
+      </c>
+      <c r="N49" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="K50">
+        <v>1</v>
+      </c>
+      <c r="O50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C51">
+        <v>2</v>
+      </c>
+      <c r="G51">
+        <v>2</v>
+      </c>
+      <c r="K51">
+        <v>2</v>
+      </c>
+      <c r="O51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C52">
+        <v>3</v>
+      </c>
+      <c r="G52">
+        <v>3</v>
+      </c>
+      <c r="K52">
+        <v>3</v>
+      </c>
+      <c r="O52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C53">
+        <v>4</v>
+      </c>
+      <c r="D53" t="s">
+        <v>14</v>
+      </c>
+      <c r="G53">
+        <v>4</v>
+      </c>
+      <c r="K53">
+        <v>4</v>
+      </c>
+      <c r="L53" t="s">
+        <v>14</v>
+      </c>
+      <c r="O53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C54">
+        <v>5</v>
+      </c>
+      <c r="D54" t="s">
+        <v>14</v>
+      </c>
+      <c r="G54">
+        <v>5</v>
+      </c>
+      <c r="K54">
+        <v>5</v>
+      </c>
+      <c r="L54" t="s">
+        <v>14</v>
+      </c>
+      <c r="O54">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>